--- a/Results/adult_results.xlsx
+++ b/Results/adult_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnico\OneDrive\Documents\Master\TFM\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42C38A9-D1E2-4194-89FA-48E4AC551954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D78BC4-F95B-4318-93E6-331A84D30098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="23">
   <si>
     <t>Dataset</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Encoder</t>
   </si>
   <si>
+    <t>EarlyStopping</t>
+  </si>
+  <si>
     <t>Metric</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t>OneHotEncoding</t>
+  </si>
+  <si>
+    <t>NoEarlyStopping</t>
   </si>
   <si>
     <t>BalancedAccuracy</t>
@@ -445,25 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,643 +487,1000 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>0.86915626012763469</v>
+      </c>
+      <c r="H2">
+        <v>6.93943190574646</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>6.93943190574646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
-        <v>0.8428120726628634</v>
-      </c>
-      <c r="G2">
-        <v>2.7823629379272461</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2.7823629379272461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0.85882948016270855</v>
+      </c>
+      <c r="H3">
+        <v>0.20581769943237299</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.20581769943237299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>0.88484708975318105</v>
+      </c>
+      <c r="H4">
+        <v>13.62381196022034</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>0.13623811960220339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>0.84351131196535833</v>
-      </c>
-      <c r="G3">
-        <v>219.66196918487549</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>2.1966196918487548</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>0.84123756570454677</v>
-      </c>
-      <c r="G4">
-        <v>0.94010615348815918</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0.94010615348815918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>0.84400927480907073</v>
+      <c r="F5" t="s">
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>1.088117837905884</v>
+        <v>0.88846956484866468</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3.095711469650269</v>
       </c>
       <c r="I5">
-        <v>1.088117837905884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>3.095711469650269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>0.84285154133022877</v>
+      <c r="F6" t="s">
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>47.362717866897583</v>
+        <v>0.88846956484866468</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>3.201745986938477</v>
       </c>
       <c r="I6">
-        <v>0.47362717866897591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3.201745986938477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>0.84223984570996935</v>
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>71.109096527099609</v>
+        <v>0.8877275026426501</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>0.21393847465515139</v>
       </c>
       <c r="I7">
-        <v>0.71109096527099613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.21393847465515139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>0.84239829131648936</v>
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>0.78440070152282715</v>
+        <v>0.8877275026426501</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.1755061149597168</v>
       </c>
       <c r="I8">
-        <v>0.78440070152282715</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.1755061149597168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>0.8398566698463632</v>
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>1.044805765151978</v>
+        <v>0.90298672465857566</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>7.8325634002685547</v>
       </c>
       <c r="I9">
-        <v>1.044805765151978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>7.8325634002685551E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>0.84047135759972313</v>
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>42.396218538284302</v>
+        <v>0.90298672465857566</v>
       </c>
       <c r="H10">
+        <v>7.6788144111633301</v>
+      </c>
+      <c r="I10">
         <v>100</v>
       </c>
-      <c r="I10">
-        <v>0.42396218538284303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>7.6788144111633302E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>0.88203179660832132</v>
+      </c>
+      <c r="H11">
+        <v>3.098071813583374</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>3.098071813583374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>0.87809280926578248</v>
+      </c>
+      <c r="H12">
+        <v>3.1486372947692871</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>3.1486372947692871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>0.88203179660832132</v>
+      </c>
+      <c r="H13">
+        <v>0.22496700286865229</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.22496700286865229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>0.89625364594849177</v>
+      </c>
+      <c r="H14">
+        <v>0.23771572113037109</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.23771572113037109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>0.84249743347933048</v>
-      </c>
-      <c r="G11">
-        <v>64.96291708946228</v>
-      </c>
-      <c r="H11">
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>0.90836591844584924</v>
+      </c>
+      <c r="H15">
+        <v>6.5252761840820313</v>
+      </c>
+      <c r="I15">
         <v>100</v>
       </c>
-      <c r="I11">
-        <v>0.6496291708946228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="J15">
+        <v>6.5252761840820309E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>0.84203557711808608</v>
-      </c>
-      <c r="G12">
-        <v>1.040681838989258</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1.040681838989258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C16" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13">
-        <v>0.83959010567770043</v>
-      </c>
-      <c r="G13">
-        <v>1.0825116634368901</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1.0825116634368901</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>0.84219869595015528</v>
-      </c>
-      <c r="G14">
-        <v>48.514368057250977</v>
-      </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-      <c r="I14">
-        <v>0.48514368057250978</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15">
-        <v>0.84100579697770028</v>
-      </c>
-      <c r="G15">
-        <v>68.795304298400879</v>
-      </c>
-      <c r="H15">
-        <v>100</v>
-      </c>
-      <c r="I15">
-        <v>0.68795304298400883</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16">
-        <v>0.84052672792144634</v>
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
       </c>
       <c r="G16">
-        <v>0.82148385047912598</v>
+        <v>0.90075448038987038</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>6.9354081153869629</v>
       </c>
       <c r="I16">
-        <v>0.82148385047912598</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>6.9354081153869623E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17">
-        <v>0.83905996947347572</v>
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
       </c>
       <c r="G17">
-        <v>1.016831636428833</v>
+        <v>0.88453057750612585</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2.8600833415985112</v>
       </c>
       <c r="I17">
-        <v>1.016831636428833</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>2.8600833415985112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18">
-        <v>0.84310351488518553</v>
+      <c r="F18" t="s">
+        <v>15</v>
       </c>
       <c r="G18">
-        <v>41.880415439605713</v>
+        <v>0.88632364210188364</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>2.9060156345367432</v>
       </c>
       <c r="I18">
-        <v>0.41880415439605712</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>2.9060156345367432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19">
-        <v>0.84010171814626378</v>
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
       </c>
       <c r="G19">
-        <v>66.613521099090576</v>
+        <v>0.88387483682203527</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>0.1061296463012695</v>
       </c>
       <c r="I19">
-        <v>0.66613521099090578</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.1061296463012695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20">
-        <v>0.84137150330920407</v>
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
       </c>
       <c r="G20">
-        <v>3.162104606628418</v>
+        <v>0.88387483682203527</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0.1427924633026123</v>
       </c>
       <c r="I20">
-        <v>3.162104606628418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.1427924633026123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
         <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21">
-        <v>0.84137150330920407</v>
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
       </c>
       <c r="G21">
-        <v>2.8969202041625981</v>
+        <v>0.89399262783914524</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>6.7818078994750977</v>
       </c>
       <c r="I21">
-        <v>2.8969202041625981</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>6.781807899475098E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22">
-        <v>0.84271124940757347</v>
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
       </c>
       <c r="G22">
-        <v>604.5574049949646</v>
+        <v>0.89834202101399019</v>
       </c>
       <c r="H22">
+        <v>7.117060661315918</v>
+      </c>
+      <c r="I22">
         <v>100</v>
       </c>
-      <c r="I22">
-        <v>6.0455740499496464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>7.1170606613159174E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>0.89884632043154711</v>
+      </c>
+      <c r="H23">
+        <v>3.0336885452270508</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>3.0336885452270508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>0.892761410342227</v>
+      </c>
+      <c r="H24">
+        <v>3.115392923355103</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>3.115392923355103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>0.87808523720245579</v>
+      </c>
+      <c r="H25">
+        <v>0.175297737121582</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.175297737121582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>0.88343565714908789</v>
+      </c>
+      <c r="H26">
+        <v>0.17605018615722659</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.17605018615722659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
         <v>16</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>0.89628241978913326</v>
+      </c>
+      <c r="H27">
+        <v>6.811598539352417</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27">
+        <v>6.8115985393524175E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>0.90760265446251975</v>
+      </c>
+      <c r="H28">
+        <v>7.1059160232543954</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28">
+        <v>7.1059160232543939E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
         <v>14</v>
       </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23">
-        <v>0.84271124940757347</v>
-      </c>
-      <c r="G23">
-        <v>707.33740499496457</v>
-      </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
-      <c r="I23">
-        <v>7.0733740499496456</v>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>0.91118878365403555</v>
+      </c>
+      <c r="H29">
+        <v>19.241959810256962</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>19.241959810256962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>0.91118878365403555</v>
+      </c>
+      <c r="H30">
+        <v>17.457045316696171</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>17.457045316696171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>0.91242000115095356</v>
+      </c>
+      <c r="H31">
+        <v>65.928590536117554</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>6.5928590536117557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>0.91242000115095356</v>
+      </c>
+      <c r="H32">
+        <v>62.819799900054932</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>6.2819799900054933</v>
       </c>
     </row>
   </sheetData>
